--- a/Shablon/TPS2024.xlsx
+++ b/Shablon/TPS2024.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="112">
   <si>
     <r>
       <t>τ</t>
@@ -635,31 +635,6 @@
   </si>
   <si>
     <t>_date</t>
-  </si>
-  <si>
-    <r>
-      <t>Протокол №</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 10/10-01-2024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>/</t>
-    </r>
   </si>
   <si>
     <t>tr2_1</t>
@@ -1053,9 +1028,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1100,17 +1072,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1131,12 +1110,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1163,21 +1136,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1512,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:F40"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1529,36 +1502,36 @@
     <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-    </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="67" t="str">
+        <f>"Протокол поверки № 10/"&amp;C53&amp;"/"&amp;D6</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="66"/>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1568,57 +1541,57 @@
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="22" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="23"/>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="24"/>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="41" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="40" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="I6" s="34"/>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="I7" s="34"/>
+    </row>
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="25" t="s">
         <v>70</v>
       </c>
@@ -1626,65 +1599,65 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="41" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="40" t="s">
         <v>66</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="57" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="36"/>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="37" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1692,14 +1665,14 @@
       <c r="E13" s="7"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -1708,7 +1681,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1716,68 +1689,68 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="49" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="66" t="s">
+      <c r="F17" s="51"/>
+      <c r="G17" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="66"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="51" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="51"/>
-      <c r="G18" s="56" t="s">
+      <c r="F18" s="52"/>
+      <c r="G18" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="56"/>
+      <c r="H18" s="48"/>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="51" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="56" t="s">
+      <c r="F19" s="52"/>
+      <c r="G19" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="56"/>
+      <c r="H19" s="48"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="51" t="s">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="51"/>
-      <c r="G20" s="56" t="s">
+      <c r="F20" s="52"/>
+      <c r="G20" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="56"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
@@ -1788,17 +1761,17 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -1903,17 +1876,17 @@
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="F33" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>99</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>38</v>
@@ -1926,17 +1899,17 @@
       <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="43" t="s">
+      <c r="D34" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="42" t="s">
         <v>100</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>101</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>39</v>
@@ -1949,17 +1922,17 @@
       <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="42" t="s">
         <v>102</v>
-      </c>
-      <c r="E35" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>103</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>40</v>
@@ -1972,17 +1945,17 @@
       <c r="B36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="F36" s="42" t="s">
         <v>105</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>106</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>41</v>
@@ -1995,17 +1968,17 @@
       <c r="B37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="43" t="s">
+      <c r="C37" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="F37" s="42" t="s">
         <v>108</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>109</v>
       </c>
       <c r="G37" s="18" t="s">
         <v>42</v>
@@ -2018,17 +1991,17 @@
       <c r="B38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="43" t="s">
+      <c r="C38" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="F38" s="42" t="s">
         <v>111</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>112</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>43</v>
@@ -2036,14 +2009,14 @@
     </row>
     <row r="39" spans="1:9" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
     </row>
     <row r="41" spans="1:9" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
@@ -2077,17 +2050,17 @@
       <c r="A43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="E43" s="26" t="s">
         <v>91</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>1</v>
@@ -2102,17 +2075,17 @@
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
     </row>
     <row r="46" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
@@ -2189,45 +2162,45 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
     </row>
-    <row r="51" spans="1:9" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44" t="s">
+    <row r="51" spans="1:9" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="31"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:9" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44" t="s">
+    <row r="52" spans="1:9" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="33" t="s">
+      <c r="B52" s="62"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="30" t="s">
+      <c r="F52" s="64"/>
+      <c r="G52" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="H52" s="34"/>
-    </row>
-    <row r="53" spans="1:9" s="32" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44" t="s">
+      <c r="H52" s="33"/>
+    </row>
+    <row r="53" spans="1:9" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="47" t="s">
+      <c r="B53" s="62"/>
+      <c r="C53" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="47"/>
+      <c r="D53" s="65"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2348,15 +2321,12 @@
     <row r="166" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
@@ -2368,16 +2338,19 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="D10:H11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A10:C11"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.39370078740157483" bottom="0.75181159420289856" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Shablon/TPS2024.xlsx
+++ b/Shablon/TPS2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITL\MEASControl\Shablon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_doc\ITL\MEASControl\Shablon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,20 +47,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>≤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2,1</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -68,13 +54,6 @@
   </si>
   <si>
     <t>Действительные значения</t>
-  </si>
-  <si>
-    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"
-СГМетр, лаборатория средств электрорадиотехнических измерений
-125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23
-Аттестат аккредитации № РОСС СОБ 3.00231.2014
-Тел. +7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
   </si>
   <si>
     <t>Условия проведения поверки:</t>
@@ -280,22 +259,6 @@
   </si>
   <si>
     <t>Установленное напряжение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Измеренное напряжение (кан. 1)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Измеренное напряжение (кан. 2)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Измеренное напряжение (кан. 3)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Измеренное напряжение (кан. 4)
-</t>
   </si>
   <si>
     <t>Пределы погрешности измерения напряжения</t>
@@ -704,6 +667,28 @@
   </si>
   <si>
     <t>dcv4_6</t>
+  </si>
+  <si>
+    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"
+СГМетр, лаборатория средств электрических и радиотехнических измерений
+125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23
+Уникальный номер об аккредитации в реестре аккредитованных лиц № РОСС СОБ 3.00231.2014
+Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.ru</t>
+  </si>
+  <si>
+    <t>Измеренное напряжение (кан. 1)</t>
+  </si>
+  <si>
+    <t>Измеренное напряжение (кан. 2)</t>
+  </si>
+  <si>
+    <t>Измеренное напряжение (кан. 3)</t>
+  </si>
+  <si>
+    <t>Измеренное напряжение (кан. 4)</t>
+  </si>
+  <si>
+    <t>≤ 2,1</t>
   </si>
 </sst>
 </file>
@@ -957,7 +942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -997,17 +982,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1072,85 +1051,88 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1487,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J166"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1503,33 +1485,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="A1" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="str">
+      <c r="A3" s="59" t="str">
         <f>"Протокол поверки № 10/"&amp;C53&amp;"/"&amp;D6</f>
         <v>Протокол поверки № 10/_date/_numb</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="66"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
@@ -1537,125 +1519,125 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="22" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="41" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="40" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:10" s="9" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -1674,7 +1656,7 @@
     </row>
     <row r="15" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1689,68 +1671,68 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="45" t="s">
+      <c r="F17" s="45"/>
+      <c r="G17" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="65"/>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="51"/>
+    </row>
+    <row r="19" spans="1:9" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="45"/>
-    </row>
-    <row r="18" spans="1:9" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="51"/>
+    </row>
+    <row r="20" spans="1:9" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="48" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="48"/>
-    </row>
-    <row r="19" spans="1:9" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="48"/>
-    </row>
-    <row r="20" spans="1:9" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="48"/>
+      <c r="H20" s="51"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
@@ -1761,17 +1743,17 @@
       <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
+      <c r="A22" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
@@ -1783,7 +1765,7 @@
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1799,7 +1781,7 @@
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1815,7 +1797,7 @@
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1831,7 +1813,7 @@
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1847,176 +1829,176 @@
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:9" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>29</v>
+      <c r="A32" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>38</v>
+      <c r="C33" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="42" t="s">
+      <c r="C34" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="G34" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>41</v>
+      <c r="G36" s="17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>111</v>
+        <v>15</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
+      <c r="A40" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
     </row>
     <row r="41" spans="1:9" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
@@ -2027,20 +2009,20 @@
       <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:9" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>49</v>
+      <c r="A42" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>0</v>
@@ -2048,22 +2030,22 @@
     </row>
     <row r="43" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2075,17 +2057,17 @@
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:9" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
+      <c r="A45" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="64"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
     </row>
     <row r="46" spans="1:9" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
@@ -2099,26 +2081,26 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>50</v>
+      <c r="A47" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="19" t="s">
-        <v>55</v>
-      </c>
       <c r="F47" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -2128,18 +2110,18 @@
         <v>10</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="16"/>
       <c r="G48" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -2162,45 +2144,45 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
     </row>
-    <row r="51" spans="1:9" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
+    <row r="51" spans="1:9" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="60"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:9" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="F52" s="64"/>
-      <c r="G52" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="H52" s="33"/>
-    </row>
-    <row r="53" spans="1:9" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="65"/>
+    <row r="52" spans="1:9" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="60"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="62"/>
+      <c r="G52" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" s="31"/>
+    </row>
+    <row r="53" spans="1:9" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="60"/>
+      <c r="C53" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="63"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2327,6 +2309,14 @@
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
@@ -2343,14 +2333,6 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.39370078740157483" bottom="0.75181159420289856" header="0.51181102362204722" footer="0.51181102362204722"/>
